--- a/src/experiments/experiment_results.xlsx
+++ b/src/experiments/experiment_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t xml:space="preserve">BOHB</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">n_iterations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_workers</t>
   </si>
   <si>
     <t xml:space="preserve">time_taken</t>
@@ -188,6 +191,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -209,12 +213,14 @@
       <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -264,7 +270,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -313,24 +319,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q34" activeCellId="0" sqref="Q34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="13" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.74"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,6 +355,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
@@ -364,11 +371,12 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="Q2" s="2" t="s">
+      <c r="N2" s="1"/>
+      <c r="R2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="3"/>
       <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
     </row>
     <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -402,27 +410,30 @@
         <v>11</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2</v>
@@ -436,20 +447,20 @@
       <c r="F4" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="7" t="n">
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7" t="n">
         <v>0.9976</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="J4" s="7" t="n">
         <v>0.9808</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>16</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>19</v>
@@ -457,186 +468,207 @@
       <c r="S4" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="T4" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q5" s="0" t="s">
-        <v>21</v>
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="S5" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="0" t="n">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q7" s="0" t="s">
-        <v>24</v>
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="S7" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q12" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="R12" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="S12" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q13" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q14" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="0" t="n">
         <v>142</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q15" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="S15" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16" s="0" t="n">
+      <c r="R16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q17" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R17" s="0" t="n">
+      <c r="R17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" s="0" t="n">
         <v>2873.017</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R18" s="0" t="n">
+      <c r="R18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18" s="0" t="n">
         <v>3400</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q19" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R19" s="0" t="n">
+      <c r="R19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="0" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q20" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R20" s="0" t="n">
+      <c r="R20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="S20" s="0" t="n">
         <v>3600</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q21" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="R21" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="S21" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q22" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="R22" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="S22" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q23" s="0" t="s">
+      <c r="R23" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S23" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="R23" s="0" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q24" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="R24" s="0" t="s">
         <v>47</v>
       </c>
+      <c r="S24" s="0" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q25" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="R25" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="S25" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q26" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="R26" s="0" t="s">
-        <v>25</v>
+        <v>51</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A1:N2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/experiments/experiment_results.xlsx
+++ b/src/experiments/experiment_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t xml:space="preserve">BOHB</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">KMNIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; 3 hours</t>
   </si>
   <si>
     <t xml:space="preserve">CPU op-mode(s):      </t>
@@ -322,7 +319,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -450,8 +447,8 @@
       <c r="G4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>18</v>
+      <c r="H4" s="0" t="n">
+        <v>7500</v>
       </c>
       <c r="I4" s="7" t="n">
         <v>0.9976</v>
@@ -463,13 +460,13 @@
         <v>16</v>
       </c>
       <c r="R4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="T4" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -479,11 +476,38 @@
       <c r="B5" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>7508.52000308037</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>0.9828</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>0.9717</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="R5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>8</v>
@@ -508,15 +532,15 @@
         <v>17</v>
       </c>
       <c r="R7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R8" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S8" s="0" t="n">
         <v>2</v>
@@ -524,7 +548,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R9" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>4</v>
@@ -532,7 +556,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R10" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S10" s="0" t="n">
         <v>1</v>
@@ -540,7 +564,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R11" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S11" s="0" t="n">
         <v>1</v>
@@ -548,15 +572,15 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="S12" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R13" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>6</v>
@@ -564,7 +588,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R14" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S14" s="0" t="n">
         <v>142</v>
@@ -572,15 +596,15 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R16" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S16" s="0" t="n">
         <v>10</v>
@@ -588,7 +612,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R17" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S17" s="0" t="n">
         <v>2873.017</v>
@@ -596,7 +620,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R18" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S18" s="0" t="n">
         <v>3400</v>
@@ -604,7 +628,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R19" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>400</v>
@@ -612,7 +636,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R20" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S20" s="0" t="n">
         <v>3600</v>
@@ -620,50 +644,50 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="S21" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="S21" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="S22" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R23" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S24" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="S24" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="S25" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R26" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/experiments/experiment_results.xlsx
+++ b/src/experiments/experiment_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t xml:space="preserve">BOHB</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">0-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K49</t>
   </si>
   <si>
     <t xml:space="preserve">Thread(s) per core:  </t>
@@ -183,7 +186,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -219,6 +222,20 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCE181E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,6 +309,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -308,6 +337,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -316,10 +405,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -517,6 +606,33 @@
       <c r="B6" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>0.9997</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>0.9826</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="R6" s="0" t="s">
         <v>23</v>
       </c>
@@ -525,12 +641,42 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="C7" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>15713.2439081669</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0.9995</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>0.9783</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
       <c r="R7" s="0" t="s">
         <v>24</v>
       </c>
@@ -539,8 +685,41 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>16050.4527163506</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>0.9345</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <v>0.8906</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="R8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S8" s="0" t="n">
         <v>2</v>
@@ -548,7 +727,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>4</v>
@@ -556,7 +735,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S10" s="0" t="n">
         <v>1</v>
@@ -564,7 +743,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S11" s="0" t="n">
         <v>1</v>
@@ -572,15 +751,17 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
       <c r="R13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>6</v>
@@ -588,7 +769,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S14" s="0" t="n">
         <v>142</v>
@@ -596,15 +777,15 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R15" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="S15" s="8" t="s">
         <v>35</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S16" s="0" t="n">
         <v>10</v>
@@ -612,7 +793,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S17" s="0" t="n">
         <v>2873.017</v>
@@ -620,7 +801,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S18" s="0" t="n">
         <v>3400</v>
@@ -628,7 +809,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>400</v>
@@ -636,7 +817,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S20" s="0" t="n">
         <v>3600</v>
@@ -644,50 +825,56 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R21" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R23" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S23" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="S23" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R25" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R26" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S26" s="0" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="0" t="n">
+        <f aca="false">SUM(H4:H8)/3600</f>
+        <v>16.3256157298883</v>
       </c>
     </row>
   </sheetData>

--- a/src/experiments/experiment_results.xlsx
+++ b/src/experiments/experiment_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t xml:space="preserve">BOHB</t>
   </si>
@@ -76,6 +76,9 @@
     <t xml:space="preserve">KMNIST</t>
   </si>
   <si>
+    <t xml:space="preserve">92.3%/94.69%</t>
+  </si>
+  <si>
     <t xml:space="preserve">CPU op-mode(s):      </t>
   </si>
   <si>
@@ -115,30 +118,60 @@
     <t xml:space="preserve">NUMA node(s):        </t>
   </si>
   <si>
+    <t xml:space="preserve">TRANSFER LEARN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vendor ID:           </t>
   </si>
   <si>
     <t xml:space="preserve">GenuineIntel</t>
   </si>
   <si>
+    <t xml:space="preserve">Pre-Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Time Taken</t>
+  </si>
+  <si>
     <t xml:space="preserve">CPU family:          </t>
   </si>
   <si>
+    <t xml:space="preserve">BOHB_KMNIST_2_1_16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model:               </t>
   </si>
   <si>
+    <t xml:space="preserve">BOHB_KMNIST_3_1_9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model name:          </t>
   </si>
   <si>
     <t xml:space="preserve">Intel(R) Core(TM) i5-8250U CPU @ 1.60GHz</t>
   </si>
   <si>
+    <t xml:space="preserve">BOHB_KMNIST_4_1_16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stepping:            </t>
   </si>
   <si>
+    <t xml:space="preserve">BOHB_KMNIST_3_2_20</t>
+  </si>
+  <si>
     <t xml:space="preserve">CPU MHz:             </t>
   </si>
   <si>
+    <t xml:space="preserve">BOHB_K49_3_1_9</t>
+  </si>
+  <si>
     <t xml:space="preserve">CPU max MHz:         </t>
   </si>
   <si>
@@ -154,6 +187,9 @@
     <t xml:space="preserve">VT-x</t>
   </si>
   <si>
+    <t xml:space="preserve">BOHB - TRANSFER CONFIG</t>
+  </si>
+  <si>
     <t xml:space="preserve">L1d cache:           </t>
   </si>
   <si>
@@ -163,6 +199,9 @@
     <t xml:space="preserve">L1i cache:           </t>
   </si>
   <si>
+    <t xml:space="preserve">BOHB_KMNIST_3_2_20 (5 hyperparameters)</t>
+  </si>
+  <si>
     <t xml:space="preserve">L2 cache:            </t>
   </si>
   <si>
@@ -176,6 +215,9 @@
   </si>
   <si>
     <t xml:space="preserve">NUMA node0 CPU(s):   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">`</t>
   </si>
 </sst>
 </file>
@@ -186,7 +228,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -218,13 +260,6 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCE181E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -279,7 +314,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -320,12 +355,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -337,66 +376,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCE181E"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -408,16 +387,22 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="11.52"/>
@@ -548,14 +533,23 @@
       <c r="K4" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="L4" s="7" t="n">
+        <v>0.9986</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="R4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,11 +586,20 @@
       <c r="K5" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="L5" s="7" t="n">
+        <v>0.9859</v>
+      </c>
+      <c r="M5" s="7" t="n">
+        <v>0.8736</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="R5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -633,8 +636,17 @@
       <c r="K6" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="L6" s="7" t="n">
+        <v>0.9998</v>
+      </c>
+      <c r="M6" s="7" t="n">
+        <v>0.9532</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="R6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>8</v>
@@ -663,33 +675,39 @@
         <v>1</v>
       </c>
       <c r="H7" s="8" t="n">
-        <v>15713.2439081669</v>
+        <v>19766.4963846207</v>
       </c>
       <c r="I7" s="9" t="n">
-        <v>0.9995</v>
+        <v>0.9965</v>
       </c>
       <c r="J7" s="9" t="n">
-        <v>0.9783</v>
+        <v>0.9831</v>
       </c>
       <c r="K7" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="L7" s="9" t="n">
+        <v>0.9957</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0.9157</v>
+      </c>
+      <c r="N7" s="8" t="n">
+        <v>20</v>
+      </c>
       <c r="R7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
@@ -718,8 +736,17 @@
       <c r="K8" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="L8" s="7" t="n">
+        <v>0.9993</v>
+      </c>
+      <c r="M8" s="7" t="n">
+        <v>0.8812</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="R8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S8" s="0" t="n">
         <v>2</v>
@@ -727,7 +754,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>4</v>
@@ -735,7 +762,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S10" s="0" t="n">
         <v>1</v>
@@ -743,65 +770,260 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="R12" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="R13" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>0.9958</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>0.9469</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>0.9645</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>0.8991</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">447.788898229599+1695.3580596447</f>
+        <v>2143.1469578743</v>
+      </c>
       <c r="R14" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="S14" s="0" t="n">
         <v>142</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>0.9823</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>0.9326</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>0.9326</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>0.8605</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">474.691176652908+3283.0042052269</f>
+        <v>3757.69538187981</v>
+      </c>
       <c r="R15" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>0.9995</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>0.9598</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <v>0.9963</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>0.9307</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">1109.43264222145+6734.84380841255</f>
+        <v>7844.276450634</v>
+      </c>
       <c r="R16" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S16" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>0.9956</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">237.180494070053+1001.07636117935</f>
+        <v>1238.2568552494</v>
+      </c>
       <c r="R17" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="S17" s="0" t="n">
         <v>2873.017</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>0.9855</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>0.8778</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <v>0.9998</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">860.058214664459+750.98587179184</f>
+        <v>1611.0440864563</v>
+      </c>
       <c r="R18" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="S18" s="0" t="n">
         <v>3400</v>
@@ -809,7 +1031,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R19" s="0" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>400</v>
@@ -817,7 +1039,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R20" s="0" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="S20" s="0" t="n">
         <v>3600</v>
@@ -825,61 +1047,273 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R21" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
       <c r="R22" s="0" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S22" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>13888.2287483215</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>0.9817</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <v>0.9609</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <v>0.9887</v>
+      </c>
+      <c r="M24" s="7" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>18743.8345746994</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <v>0.9884</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <v>0.9644</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <v>0.9893</v>
+      </c>
+      <c r="M25" s="7" t="n">
+        <v>0.8998</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R23" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="S23" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R24" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="S24" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R25" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="S25" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>27534.1222834587</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>0.9943</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <v>0.9564</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="M26" s="7" t="n">
+        <v>0.9336</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="R26" s="0" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H44" s="0" t="n">
         <f aca="false">SUM(H4:H8)/3600</f>
-        <v>16.3256157298883</v>
+        <v>17.4515191955699</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="A1:N2"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/experiments/experiment_results.xlsx
+++ b/src/experiments/experiment_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t xml:space="preserve">BOHB</t>
   </si>
@@ -145,12 +145,21 @@
     <t xml:space="preserve">BOHB_KMNIST_2_1_16</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show learning curve</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model:               </t>
   </si>
   <si>
     <t xml:space="preserve">BOHB_KMNIST_3_1_9</t>
   </si>
   <si>
+    <t xml:space="preserve">Did the test loss actually decrease for K49</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model name:          </t>
   </si>
   <si>
@@ -160,6 +169,9 @@
     <t xml:space="preserve">BOHB_KMNIST_4_1_16</t>
   </si>
   <si>
+    <t xml:space="preserve">Did it really learn?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stepping:            </t>
   </si>
   <si>
@@ -214,10 +226,22 @@
     <t xml:space="preserve">6144K</t>
   </si>
   <si>
+    <t xml:space="preserve">BOHB_KMNIST_3_2_20 (Subsetted data)</t>
+  </si>
+  <si>
     <t xml:space="preserve">NUMA node0 CPU(s):   </t>
   </si>
   <si>
     <t xml:space="preserve">`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default: K49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 Epochs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default: KMNIST</t>
   </si>
 </sst>
 </file>
@@ -228,7 +252,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -267,6 +291,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCE181E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -339,8 +370,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -359,12 +390,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -376,6 +407,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -384,10 +475,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+      <selection pane="topLeft" activeCell="M29" activeCellId="0" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -503,7 +594,7 @@
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -556,7 +647,7 @@
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -606,7 +697,7 @@
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -653,10 +744,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="8" t="n">
@@ -703,10 +794,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -753,423 +844,375 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R9" s="0" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R10" s="0" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R11" s="0" t="s">
+      <c r="S12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R13" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
+      <c r="S13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="R12" s="0" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="R14" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="S12" s="0" t="s">
+      <c r="S14" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R13" s="0" t="s">
+      <c r="R15" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D16" s="7" t="n">
         <v>0.9958</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E16" s="7" t="n">
         <v>0.9469</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="F16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="7" t="n">
+      <c r="H16" s="7" t="n">
         <v>0.9645</v>
       </c>
-      <c r="I14" s="7" t="n">
+      <c r="I16" s="7" t="n">
         <v>0.8991</v>
       </c>
-      <c r="J14" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K14" s="0" t="n">
+      <c r="J16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K16" s="0" t="n">
         <f aca="false">447.788898229599+1695.3580596447</f>
         <v>2143.1469578743</v>
       </c>
-      <c r="R14" s="0" t="s">
+      <c r="L16" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="M16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" s="0" t="n">
         <v>142</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="0" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D17" s="7" t="n">
         <v>0.9823</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E17" s="7" t="n">
         <v>0.9326</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="7" t="n">
+      <c r="H17" s="7" t="n">
         <v>0.9326</v>
       </c>
-      <c r="I15" s="7" t="n">
+      <c r="I17" s="7" t="n">
         <v>0.8605</v>
       </c>
-      <c r="J15" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K15" s="0" t="n">
+      <c r="J17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" s="0" t="n">
         <f aca="false">474.691176652908+3283.0042052269</f>
         <v>3757.69538187981</v>
       </c>
-      <c r="R15" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="M17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="R17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D18" s="7" t="n">
         <v>0.9995</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E18" s="7" t="n">
         <v>0.9598</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="7" t="n">
+      <c r="H18" s="7" t="n">
         <v>0.9963</v>
       </c>
-      <c r="I16" s="7" t="n">
+      <c r="I18" s="7" t="n">
         <v>0.9307</v>
       </c>
-      <c r="J16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K16" s="0" t="n">
+      <c r="J18" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K18" s="0" t="n">
         <f aca="false">1109.43264222145+6734.84380841255</f>
         <v>7844.276450634</v>
       </c>
-      <c r="R16" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="S16" s="0" t="n">
+      <c r="M18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="S18" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="0" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D19" s="7" t="n">
         <v>0.9956</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E19" s="7" t="n">
         <v>0.953</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="F19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="7" t="n">
+      <c r="H19" s="7" t="n">
         <v>0.97</v>
       </c>
-      <c r="I17" s="7" t="n">
+      <c r="I19" s="7" t="n">
         <v>0.92</v>
       </c>
-      <c r="J17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K17" s="0" t="n">
+      <c r="J19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K19" s="0" t="n">
         <f aca="false">237.180494070053+1001.07636117935</f>
         <v>1238.2568552494</v>
       </c>
-      <c r="R17" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="S17" s="0" t="n">
+      <c r="R19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="S19" s="0" t="n">
         <v>2873.017</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="0" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D20" s="7" t="n">
         <v>0.9855</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E20" s="7" t="n">
         <v>0.8778</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="7" t="n">
-        <v>0.9998</v>
-      </c>
-      <c r="I18" s="7" t="n">
+      <c r="H20" s="7" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I20" s="7" t="n">
         <v>0.943</v>
       </c>
-      <c r="J18" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K18" s="0" t="n">
+      <c r="J20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K20" s="0" t="n">
         <f aca="false">860.058214664459+750.98587179184</f>
         <v>1611.0440864563</v>
       </c>
-      <c r="R18" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="S18" s="0" t="n">
+      <c r="R20" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="S20" s="0" t="n">
         <v>3400</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R19" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R20" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>3600</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R21" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="S21" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="S21" s="0" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R22" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="S22" s="0" t="s">
+      <c r="S22" s="0" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R23" s="0" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="0" t="s">
+      <c r="S23" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="S23" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>13888.2287483215</v>
-      </c>
-      <c r="I24" s="7" t="n">
-        <v>0.9817</v>
-      </c>
-      <c r="J24" s="7" t="n">
-        <v>0.9609</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="L24" s="7" t="n">
-        <v>0.9887</v>
-      </c>
-      <c r="M24" s="7" t="n">
-        <v>0.902</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>20</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
       <c r="R24" s="0" t="s">
         <v>60</v>
       </c>
@@ -1178,56 +1221,60 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="0" t="n">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F25" s="0" t="n">
+      <c r="D25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>18743.8345746994</v>
-      </c>
-      <c r="I25" s="7" t="n">
-        <v>0.9884</v>
-      </c>
-      <c r="J25" s="7" t="n">
-        <v>0.9644</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="L25" s="7" t="n">
-        <v>0.9893</v>
-      </c>
-      <c r="M25" s="7" t="n">
-        <v>0.8998</v>
-      </c>
-      <c r="N25" s="0" t="n">
-        <v>20</v>
+      <c r="G25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="R25" s="0" t="s">
         <v>62</v>
       </c>
       <c r="S25" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -1240,28 +1287,28 @@
         <v>9</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>27534.1222834587</v>
+        <v>13888.2287483215</v>
       </c>
       <c r="I26" s="7" t="n">
-        <v>0.9943</v>
+        <v>0.9817</v>
       </c>
       <c r="J26" s="7" t="n">
-        <v>0.9564</v>
+        <v>0.9609</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>9</v>
       </c>
       <c r="L26" s="7" t="n">
-        <v>0.999</v>
+        <v>0.9887</v>
       </c>
       <c r="M26" s="7" t="n">
-        <v>0.9336</v>
+        <v>0.902</v>
       </c>
       <c r="N26" s="0" t="n">
         <v>20</v>
@@ -1270,12 +1317,14 @@
         <v>64</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="6"/>
       <c r="C27" s="0" t="n">
         <v>4</v>
       </c>
@@ -1286,34 +1335,220 @@
         <v>16</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H27" s="0" t="n">
+        <v>18743.8345746994</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>0.9884</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <v>0.9644</v>
+      </c>
       <c r="K27" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="L27" s="7" t="n">
+        <v>0.9893</v>
+      </c>
+      <c r="M27" s="7" t="n">
+        <v>0.8998</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <v>0.9985</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <v>0.9607</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="L28" s="7" t="n">
+        <v>0.9986</v>
+      </c>
+      <c r="M28" s="7" t="n">
+        <v>0.9385</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="0" t="n">
+      <c r="A29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>27534.1222834587</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <v>0.9943</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <v>0.9564</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L29" s="7" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="M29" s="7" t="n">
+        <v>0.9336</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>70000</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <v>0.9989</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <v>0.9659</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <v>0.9993</v>
+      </c>
+      <c r="M30" s="7" t="n">
+        <v>0.9419</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>0.6602</v>
+      </c>
+      <c r="D40" s="7" t="n">
+        <v>0.5442</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>0.8262</v>
+      </c>
+      <c r="D41" s="7" t="n">
+        <v>0.6855</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H47" s="0" t="n">
         <f aca="false">SUM(H4:H8)/3600</f>
         <v>17.4515191955699</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A1:N2"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="A22:N22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="A24:N24"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/experiments/experiment_results.xlsx
+++ b/src/experiments/experiment_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
   <si>
     <t xml:space="preserve">BOHB</t>
   </si>
@@ -109,9 +109,57 @@
     <t xml:space="preserve">Thread(s) per core:  </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Running BOHB (&gt;30 hyperparameters) </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[fidelity+data aug]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Running BOHB (&gt;30 hyperparameters) </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[fidelity] </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">-----------------------------</t>
+  </si>
+  <si>
     <t xml:space="preserve">Core(s) per socket:  </t>
   </si>
   <si>
+    <t xml:space="preserve">Running BOHB (&gt;30 hyperparameters) </t>
+  </si>
+  <si>
     <t xml:space="preserve">Socket(s):           </t>
   </si>
   <si>
@@ -154,6 +202,9 @@
     <t xml:space="preserve">Model:               </t>
   </si>
   <si>
+    <t xml:space="preserve">BOHB_KMNIST_2_1_16 (aug=0.3)</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOHB_KMNIST_3_1_9</t>
   </si>
   <si>
@@ -181,6 +232,15 @@
     <t xml:space="preserve">CPU MHz:             </t>
   </si>
   <si>
+    <t xml:space="preserve">BOHB_KMNIST_3_2_20 (aug=0.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOHB_KMNIST_2_1_10 (aug=0.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOHB_KMNIST_2_1_10</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOHB_K49_3_1_9</t>
   </si>
   <si>
@@ -220,6 +280,9 @@
     <t xml:space="preserve">256K</t>
   </si>
   <si>
+    <t xml:space="preserve">K50</t>
+  </si>
+  <si>
     <t xml:space="preserve">L3 cache:            </t>
   </si>
   <si>
@@ -229,10 +292,40 @@
     <t xml:space="preserve">BOHB_KMNIST_3_2_20 (Subsetted data)</t>
   </si>
   <si>
+    <t xml:space="preserve">K51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K53</t>
+  </si>
+  <si>
     <t xml:space="preserve">NUMA node0 CPU(s):   </t>
   </si>
   <si>
+    <t xml:space="preserve">BOHB_KMNIST_4_1_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOHB_KMNIST_4_1_16 (Subsetted data + data aug) 12:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOHB_KMNIST_4_1_16 (Subsetted data) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K56</t>
+  </si>
+  <si>
     <t xml:space="preserve">`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOHB_KMNIST_2_1_16 (Subsetted data)</t>
   </si>
   <si>
     <t xml:space="preserve">Default: K49</t>
@@ -252,7 +345,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -291,6 +384,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -345,7 +445,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -390,12 +490,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -475,16 +579,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M29" activeCellId="0" sqref="M29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K39" activeCellId="0" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.37"/>
@@ -798,62 +902,60 @@
         <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0.9999</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0.9998</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0.9409</v>
+      </c>
+      <c r="N8" s="8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>9</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>16050.4527163506</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>0.9345</v>
-      </c>
-      <c r="J8" s="7" t="n">
-        <v>0.8906</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>0.9993</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <v>0.8812</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>16</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -861,16 +963,41 @@
       <c r="G9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="H9" s="0" t="n">
+        <v>16050.4527163506</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>0.9345</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>0.8906</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>0.9993</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>0.8812</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B10" s="6"/>
       <c r="C10" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -884,130 +1011,172 @@
       <c r="G10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="S10" s="0" t="n">
+      <c r="H10" s="0" t="n">
+        <v>18701.0908265114</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>0.9619</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>0.9177</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>0.9986</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>0.8794</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>0.9547</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <v>0.9335</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R12" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>1</v>
+      <c r="A12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R13" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R14" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="S14" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="R15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="G16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>0.9958</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>0.9469</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="7" t="n">
-        <v>0.9645</v>
-      </c>
-      <c r="I16" s="7" t="n">
-        <v>0.8991</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <f aca="false">447.788898229599+1695.3580596447</f>
-        <v>2143.1469578743</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>42</v>
       </c>
       <c r="R16" s="0" t="s">
         <v>43</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>142</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,537 +1187,846 @@
         <v>17</v>
       </c>
       <c r="D17" s="7" t="n">
-        <v>0.9823</v>
+        <v>0.9958</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>0.9326</v>
+        <v>0.9469</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="7" t="n">
-        <v>0.9326</v>
+        <v>0.9645</v>
       </c>
       <c r="I17" s="7" t="n">
-        <v>0.8605</v>
+        <v>0.8991</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K17" s="0" t="n">
-        <f aca="false">474.691176652908+3283.0042052269</f>
-        <v>3757.69538187981</v>
+        <f aca="false">447.788898229599+1695.3580596447</f>
+        <v>2143.1469578743</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="S17" s="12" t="s">
         <v>47</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="7" t="n">
-        <v>0.9995</v>
+        <v>0.9982</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>0.9598</v>
+        <v>0.9514</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="7" t="n">
-        <v>0.9963</v>
+        <v>0.951</v>
       </c>
       <c r="I18" s="7" t="n">
-        <v>0.9307</v>
+        <v>0.8854</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K18" s="0" t="n">
-        <f aca="false">1109.43264222145+6734.84380841255</f>
-        <v>7844.276450634</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="R18" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="S18" s="0" t="n">
-        <v>10</v>
-      </c>
+        <f aca="false">465.038370370865+2125.40001702309</f>
+        <v>2590.43838739395</v>
+      </c>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="7" t="n">
-        <v>0.9956</v>
+        <v>0.9823</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>0.953</v>
+        <v>0.9326</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H19" s="7" t="n">
-        <v>0.97</v>
+        <v>0.9326</v>
       </c>
       <c r="I19" s="7" t="n">
-        <v>0.92</v>
+        <v>0.8605</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K19" s="0" t="n">
-        <f aca="false">237.180494070053+1001.07636117935</f>
-        <v>1238.2568552494</v>
+        <f aca="false">474.691176652908+3283.0042052269</f>
+        <v>3757.69538187981</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="R19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="S19" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>2873.017</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>0.9995</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>0.9598</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="H20" s="7" t="n">
+        <v>0.9963</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>0.9307</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">1109.43264222145+6734.84380841255</f>
+        <v>7844.276450634</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>0.9956</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">237.180494070053+1001.07636117935</f>
+        <v>1238.2568552494</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>2873.017</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="n">
+        <v>0.9958</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>0.9551</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <v>0.9562</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">274.710646629333+1572.73561954498</f>
+        <v>1847.44626617432</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>0.9382</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>0.9125</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">236.413597106934+4127.5050535202</f>
+        <v>4363.91865062714</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="n">
+        <v>0.9983</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>0.9399</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7" t="n">
+        <v>0.9975</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>0.9058</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">180.178126811981+2472.65315008163</f>
+        <v>2652.83127689362</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="7" t="n">
         <v>0.9855</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E25" s="7" t="n">
         <v>0.8778</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="7" t="n">
+      <c r="H25" s="7" t="n">
         <v>0.97</v>
       </c>
-      <c r="I20" s="7" t="n">
+      <c r="I25" s="7" t="n">
         <v>0.943</v>
       </c>
-      <c r="J20" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K20" s="0" t="n">
+      <c r="J25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K25" s="0" t="n">
         <f aca="false">860.058214664459+750.98587179184</f>
         <v>1611.0440864563</v>
       </c>
-      <c r="R20" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R21" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R22" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S22" s="0" t="n">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R23" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="S23" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="R24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="S24" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="R25" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="S25" s="0" t="s">
-        <v>61</v>
+      <c r="S25" s="0" t="n">
+        <v>3400</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="R26" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="S26" s="0" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R27" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R28" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="R29" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="0" t="n">
+      <c r="G31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="0" t="n">
         <v>13888.2287483215</v>
       </c>
-      <c r="I26" s="7" t="n">
+      <c r="I31" s="7" t="n">
         <v>0.9817</v>
       </c>
-      <c r="J26" s="7" t="n">
+      <c r="J31" s="7" t="n">
         <v>0.9609</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L26" s="7" t="n">
+      <c r="L31" s="7" t="n">
         <v>0.9887</v>
       </c>
-      <c r="M26" s="7" t="n">
+      <c r="M31" s="7" t="n">
         <v>0.902</v>
       </c>
-      <c r="N26" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R26" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="S26" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="0" t="n">
+      <c r="N31" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="0" t="n">
+      <c r="D32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F32" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="0" t="n">
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
         <v>18743.8345746994</v>
       </c>
-      <c r="I27" s="7" t="n">
+      <c r="I32" s="7" t="n">
         <v>0.9884</v>
       </c>
-      <c r="J27" s="7" t="n">
+      <c r="J32" s="7" t="n">
         <v>0.9644</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="L27" s="7" t="n">
+      <c r="L32" s="7" t="n">
         <v>0.9893</v>
       </c>
-      <c r="M27" s="7" t="n">
+      <c r="M32" s="7" t="n">
         <v>0.8998</v>
       </c>
-      <c r="N27" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R27" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="S27" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="0" t="n">
+      <c r="N32" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
+      <c r="D33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F33" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="7" t="n">
+      <c r="G33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="7" t="n">
         <v>0.9985</v>
       </c>
-      <c r="J28" s="7" t="n">
+      <c r="J33" s="7" t="n">
         <v>0.9607</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K33" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="L28" s="7" t="n">
+      <c r="L33" s="7" t="n">
         <v>0.9986</v>
       </c>
-      <c r="M28" s="7" t="n">
+      <c r="M33" s="7" t="n">
         <v>0.9385</v>
       </c>
-      <c r="N28" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="N33" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>9265.1885433197</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <v>0.9721</v>
+      </c>
+      <c r="J34" s="7" t="n">
+        <v>0.9555</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L34" s="7" t="n">
+        <v>0.9816</v>
+      </c>
+      <c r="M34" s="7" t="n">
+        <v>0.8825</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>27534.1222834587</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <v>0.9943</v>
+      </c>
+      <c r="J35" s="7" t="n">
+        <v>0.9564</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L35" s="7" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="M35" s="7" t="n">
+        <v>0.9336</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>70000</v>
+      </c>
+      <c r="I36" s="7" t="n">
+        <v>0.9989</v>
+      </c>
+      <c r="J36" s="7" t="n">
+        <v>0.9659</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="L36" s="7" t="n">
+        <v>0.9993</v>
+      </c>
+      <c r="M36" s="7" t="n">
+        <v>0.9419</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C39" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="n">
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>27534.1222834587</v>
-      </c>
-      <c r="I29" s="7" t="n">
-        <v>0.9943</v>
-      </c>
-      <c r="J29" s="7" t="n">
-        <v>0.9564</v>
-      </c>
-      <c r="K29" s="0" t="n">
+      <c r="F39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>5783.84894371033</v>
+      </c>
+      <c r="I39" s="7" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="J39" s="7" t="n">
+        <v>0.9405</v>
+      </c>
+      <c r="K39" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L29" s="7" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="M29" s="7" t="n">
-        <v>0.9336</v>
-      </c>
-      <c r="N29" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R29" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S29" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>70000</v>
-      </c>
-      <c r="I30" s="7" t="n">
-        <v>0.9989</v>
-      </c>
-      <c r="J30" s="7" t="n">
-        <v>0.9659</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="L30" s="7" t="n">
-        <v>0.9993</v>
-      </c>
-      <c r="M30" s="7" t="n">
-        <v>0.9419</v>
-      </c>
-      <c r="N30" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J32" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="7" t="n">
+      <c r="L39" s="7" t="n">
+        <v>0.9905</v>
+      </c>
+      <c r="M39" s="7" t="n">
+        <v>0.8803</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="7" t="n">
         <v>0.6602</v>
       </c>
-      <c r="D40" s="7" t="n">
+      <c r="D46" s="7" t="n">
         <v>0.5442</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="7" t="n">
+      <c r="E46" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="7" t="n">
         <v>0.8262</v>
       </c>
-      <c r="D41" s="7" t="n">
+      <c r="D47" s="7" t="n">
         <v>0.6855</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H47" s="0" t="n">
-        <f aca="false">SUM(H4:H8)/3600</f>
-        <v>17.4515191955699</v>
+      <c r="E47" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H53" s="0" t="n">
+        <f aca="false">SUM(H4:H9)/3600</f>
+        <v>20.7848525289032</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="G17:G24"/>
+    <mergeCell ref="A29:N29"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/experiments/experiment_results.xlsx
+++ b/src/experiments/experiment_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
   <si>
     <t xml:space="preserve">BOHB</t>
   </si>
@@ -202,9 +202,6 @@
     <t xml:space="preserve">Model:               </t>
   </si>
   <si>
-    <t xml:space="preserve">BOHB_KMNIST_2_1_16 (aug=0.3)</t>
-  </si>
-  <si>
     <t xml:space="preserve">BOHB_KMNIST_3_1_9</t>
   </si>
   <si>
@@ -230,12 +227,6 @@
   </si>
   <si>
     <t xml:space="preserve">CPU MHz:             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOHB_KMNIST_3_2_20 (aug=0.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOHB_KMNIST_2_1_10 (aug=0.3)</t>
   </si>
   <si>
     <t xml:space="preserve">BOHB_KMNIST_2_1_10</t>
@@ -345,7 +336,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -402,6 +393,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00A65D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -445,7 +443,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -494,12 +492,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -562,7 +568,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A65D"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -579,10 +585,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K39" activeCellId="0" sqref="K39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1101,8 +1107,26 @@
       <c r="G12" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H12" s="0" t="n">
+        <v>42638.6356203556</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>0.9694</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <v>0.9119</v>
+      </c>
       <c r="K12" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <v>0.9925</v>
+      </c>
+      <c r="M12" s="7" t="n">
+        <v>0.8825</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,30 +1210,30 @@
       <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="7" t="n">
-        <v>0.9958</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>0.9469</v>
-      </c>
-      <c r="F17" s="0" t="n">
+      <c r="D17" s="9" t="n">
+        <v>0.9981</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>0.9506</v>
+      </c>
+      <c r="F17" s="8" t="n">
         <v>20</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="7" t="n">
-        <v>0.9645</v>
-      </c>
-      <c r="I17" s="7" t="n">
-        <v>0.8991</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <f aca="false">447.788898229599+1695.3580596447</f>
-        <v>2143.1469578743</v>
+      <c r="H17" s="9" t="n">
+        <v>0.9715</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>0.9049</v>
+      </c>
+      <c r="J17" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <f aca="false">836.915745019913+3280.6010415554</f>
+        <v>4117.51678657532</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>45</v>
@@ -1228,389 +1252,441 @@
       <c r="B18" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7" t="n">
-        <v>0.9982</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>0.9514</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7" t="n">
-        <v>0.951</v>
-      </c>
-      <c r="I18" s="7" t="n">
-        <v>0.8854</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <f aca="false">465.038370370865+2125.40001702309</f>
-        <v>2590.43838739395</v>
-      </c>
-      <c r="M18" s="11"/>
+      <c r="C18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <v>0.9823</v>
+      </c>
+      <c r="E18" s="12" t="n">
+        <v>0.9326</v>
+      </c>
+      <c r="F18" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="12" t="n">
+        <v>0.9326</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <v>0.8605</v>
+      </c>
+      <c r="J18" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K18" s="11" t="n">
+        <f aca="false">474.691176652908+3283.0042052269</f>
+        <v>3757.69538187981</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="7" t="n">
-        <v>0.9823</v>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>0.9326</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>10</v>
+      <c r="D19" s="12" t="n">
+        <v>0.9995</v>
+      </c>
+      <c r="E19" s="12" t="n">
+        <v>0.9598</v>
+      </c>
+      <c r="F19" s="11" t="n">
+        <v>11</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="7" t="n">
-        <v>0.9326</v>
-      </c>
-      <c r="I19" s="7" t="n">
-        <v>0.8605</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <f aca="false">474.691176652908+3283.0042052269</f>
-        <v>3757.69538187981</v>
+      <c r="H19" s="12" t="n">
+        <v>0.9963</v>
+      </c>
+      <c r="I19" s="12" t="n">
+        <v>0.9307</v>
+      </c>
+      <c r="J19" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K19" s="11" t="n">
+        <f aca="false">1109.43264222145+6734.84380841255</f>
+        <v>7844.276450634</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="7" t="n">
-        <v>0.9995</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>0.9598</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>11</v>
+      <c r="D20" s="9" t="n">
+        <v>0.9962</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>0.9541</v>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>20</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="7" t="n">
-        <v>0.9963</v>
-      </c>
-      <c r="I20" s="7" t="n">
-        <v>0.9307</v>
-      </c>
-      <c r="J20" s="0" t="n">
+      <c r="H20" s="9" t="n">
+        <v>0.9591</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>0.9063</v>
+      </c>
+      <c r="J20" s="8" t="n">
         <v>20</v>
       </c>
       <c r="K20" s="0" t="n">
-        <f aca="false">1109.43264222145+6734.84380841255</f>
-        <v>7844.276450634</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>54</v>
+        <f aca="false">331.759591579437+1154.95615339279</f>
+        <v>1486.71574497223</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S20" s="0" t="n">
-        <v>10</v>
+        <v>2873.017</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>0.9956</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>0.953</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I21" s="7" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <f aca="false">237.180494070053+1001.07636117935</f>
-        <v>1238.2568552494</v>
-      </c>
-      <c r="R21" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="S21" s="0" t="n">
-        <v>2873.017</v>
+      <c r="C21" s="6"/>
+      <c r="D21" s="9" t="n">
+        <v>0.9986</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>0.9408</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="9" t="n">
+        <v>0.9983</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <v>0.9032</v>
+      </c>
+      <c r="J21" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <f aca="false">271.268751859665+4256.23251771927</f>
+        <v>4527.50126957893</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7" t="n">
-        <v>0.9958</v>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>0.9551</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="C22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="7" t="n">
-        <v>0.9562</v>
-      </c>
-      <c r="I22" s="7" t="n">
-        <v>0.902</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <f aca="false">274.710646629333+1572.73561954498</f>
-        <v>1847.44626617432</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="D22" s="12" t="n">
+        <v>0.9855</v>
+      </c>
+      <c r="E22" s="12" t="n">
+        <v>0.8778</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="7" t="n">
-        <v>0.9992</v>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>0.9382</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7" t="n">
-        <v>0.9875</v>
-      </c>
-      <c r="I23" s="7" t="n">
-        <v>0.9125</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <f aca="false">236.413597106934+4127.5050535202</f>
-        <v>4363.91865062714</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7" t="n">
-        <v>0.9983</v>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>0.9399</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7" t="n">
-        <v>0.9975</v>
-      </c>
-      <c r="I24" s="7" t="n">
-        <v>0.9058</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <f aca="false">180.178126811981+2472.65315008163</f>
-        <v>2652.83127689362</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="7" t="n">
-        <v>0.9855</v>
-      </c>
-      <c r="E25" s="7" t="n">
-        <v>0.8778</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="7" t="n">
+      <c r="H22" s="12" t="n">
         <v>0.97</v>
       </c>
-      <c r="I25" s="7" t="n">
+      <c r="I22" s="12" t="n">
         <v>0.943</v>
       </c>
-      <c r="J25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K25" s="0" t="n">
+      <c r="J22" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" s="11" t="n">
         <f aca="false">860.058214664459+750.98587179184</f>
         <v>1611.0440864563</v>
       </c>
+      <c r="R22" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R24" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R25" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="S25" s="0" t="n">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S25" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
       <c r="R26" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="S26" s="0" t="n">
-        <v>400</v>
+        <v>65</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="R27" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="S27" s="0" t="n">
-        <v>3600</v>
+        <v>67</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>13888.2287483215</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <v>0.9817</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <v>0.9609</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L28" s="7" t="n">
+        <v>0.9887</v>
+      </c>
+      <c r="M28" s="7" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="R28" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>18743.8345746994</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <v>0.9884</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <v>0.9644</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="L29" s="7" t="n">
+        <v>0.9893</v>
+      </c>
+      <c r="M29" s="7" t="n">
+        <v>0.8998</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="R29" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F30" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R30" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="S30" s="0" t="s">
-        <v>69</v>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <v>0.9985</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <v>0.9607</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <v>0.9986</v>
+      </c>
+      <c r="M30" s="7" t="n">
+        <v>0.9385</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>3</v>
@@ -1628,92 +1704,86 @@
         <v>1</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>13888.2287483215</v>
+        <v>9265.1885433197</v>
       </c>
       <c r="I31" s="7" t="n">
-        <v>0.9817</v>
+        <v>0.9721</v>
       </c>
       <c r="J31" s="7" t="n">
-        <v>0.9609</v>
+        <v>0.9555</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>9</v>
       </c>
       <c r="L31" s="7" t="n">
-        <v>0.9887</v>
+        <v>0.9816</v>
       </c>
       <c r="M31" s="7" t="n">
-        <v>0.902</v>
+        <v>0.8825</v>
       </c>
       <c r="N31" s="0" t="n">
         <v>20</v>
-      </c>
-      <c r="R31" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="S31" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>18743.8345746994</v>
+        <v>27534.1222834587</v>
       </c>
       <c r="I32" s="7" t="n">
-        <v>0.9884</v>
+        <v>0.9943</v>
       </c>
       <c r="J32" s="7" t="n">
-        <v>0.9644</v>
+        <v>0.9564</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L32" s="7" t="n">
-        <v>0.9893</v>
+        <v>0.999</v>
       </c>
       <c r="M32" s="7" t="n">
-        <v>0.8998</v>
+        <v>0.9336</v>
       </c>
       <c r="N32" s="0" t="n">
         <v>20</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S32" s="0" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>1</v>
@@ -1722,92 +1792,71 @@
         <v>16</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H33" s="0" t="s">
-        <v>31</v>
+      <c r="H33" s="0" t="n">
+        <v>70000</v>
       </c>
       <c r="I33" s="7" t="n">
-        <v>0.9985</v>
+        <v>0.9989</v>
       </c>
       <c r="J33" s="7" t="n">
-        <v>0.9607</v>
+        <v>0.9659</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>16</v>
       </c>
       <c r="L33" s="7" t="n">
-        <v>0.9986</v>
+        <v>0.9993</v>
       </c>
       <c r="M33" s="7" t="n">
-        <v>0.9385</v>
+        <v>0.9419</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="C34" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="n">
+      <c r="D34" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="F34" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>9265.1885433197</v>
-      </c>
-      <c r="I34" s="7" t="n">
-        <v>0.9721</v>
-      </c>
-      <c r="J34" s="7" t="n">
-        <v>0.9555</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="L34" s="7" t="n">
-        <v>0.9816</v>
-      </c>
-      <c r="M34" s="7" t="n">
-        <v>0.8825</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>20</v>
+      <c r="F34" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" s="15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>3</v>
@@ -1815,201 +1864,84 @@
       <c r="G35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H35" s="0" t="n">
-        <v>27534.1222834587</v>
-      </c>
-      <c r="I35" s="7" t="n">
-        <v>0.9943</v>
-      </c>
-      <c r="J35" s="7" t="n">
-        <v>0.9564</v>
-      </c>
-      <c r="K35" s="0" t="n">
+      <c r="J35" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L35" s="7" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="M35" s="7" t="n">
-        <v>0.9336</v>
-      </c>
-      <c r="N35" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R35" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="S35" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>16</v>
-      </c>
       <c r="F36" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>70000</v>
+        <v>5783.84894371033</v>
       </c>
       <c r="I36" s="7" t="n">
-        <v>0.9989</v>
+        <v>0.958</v>
       </c>
       <c r="J36" s="7" t="n">
-        <v>0.9659</v>
+        <v>0.9405</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L36" s="7" t="n">
-        <v>0.9993</v>
+        <v>0.9905</v>
       </c>
       <c r="M36" s="7" t="n">
-        <v>0.9419</v>
+        <v>0.8803</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" s="0" t="s">
+      <c r="C43" s="7" t="n">
+        <v>0.6602</v>
+      </c>
+      <c r="D43" s="7" t="n">
+        <v>0.5442</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>5783.84894371033</v>
-      </c>
-      <c r="I39" s="7" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="J39" s="7" t="n">
-        <v>0.9405</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="L39" s="7" t="n">
-        <v>0.9905</v>
-      </c>
-      <c r="M39" s="7" t="n">
-        <v>0.8803</v>
-      </c>
-      <c r="N39" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="7" t="n">
-        <v>0.6602</v>
-      </c>
-      <c r="D46" s="7" t="n">
-        <v>0.5442</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="7" t="n">
-        <v>0.8262</v>
-      </c>
-      <c r="D47" s="7" t="n">
-        <v>0.6855</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H53" s="0" t="n">
+      <c r="C44" s="7" t="n">
+        <v>0.8266</v>
+      </c>
+      <c r="D44" s="7" t="n">
+        <v>0.6956</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H50" s="0" t="n">
         <f aca="false">SUM(H4:H9)/3600</f>
         <v>20.7848525289032</v>
       </c>
@@ -2020,13 +1952,13 @@
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B15:K15"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="G17:G24"/>
-    <mergeCell ref="A29:N29"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="A26:N26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/experiments/experiment_results.xlsx
+++ b/src/experiments/experiment_results.xlsx
@@ -103,10 +103,13 @@
     <t xml:space="preserve">0-7</t>
   </si>
   <si>
+    <t xml:space="preserve">Thread(s) per core:  </t>
+  </si>
+  <si>
     <t xml:space="preserve">K49</t>
   </si>
   <si>
-    <t xml:space="preserve">Thread(s) per core:  </t>
+    <t xml:space="preserve">Core(s) per socket:  </t>
   </si>
   <si>
     <r>
@@ -130,6 +133,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Socket(s):           </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -154,25 +160,31 @@
     <t xml:space="preserve">-----------------------------</t>
   </si>
   <si>
-    <t xml:space="preserve">Core(s) per socket:  </t>
+    <t xml:space="preserve">NUMA node(s):        </t>
   </si>
   <si>
     <t xml:space="preserve">Running BOHB (&gt;30 hyperparameters) </t>
   </si>
   <si>
-    <t xml:space="preserve">Socket(s):           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUMA node(s):        </t>
+    <t xml:space="preserve">Vendor ID:           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GenuineIntel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU family:          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model:               </t>
   </si>
   <si>
     <t xml:space="preserve">TRANSFER LEARN</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendor ID:           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GenuineIntel</t>
+    <t xml:space="preserve">Model name:          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel(R) Core(TM) i5-8250U CPU @ 1.60GHz</t>
   </si>
   <si>
     <t xml:space="preserve">Pre-Training</t>
@@ -187,7 +199,7 @@
     <t xml:space="preserve">Total Time Taken</t>
   </si>
   <si>
-    <t xml:space="preserve">CPU family:          </t>
+    <t xml:space="preserve">Stepping:            </t>
   </si>
   <si>
     <t xml:space="preserve">BOHB_KMNIST_2_1_16</t>
@@ -199,7 +211,7 @@
     <t xml:space="preserve">Show learning curve</t>
   </si>
   <si>
-    <t xml:space="preserve">Model:               </t>
+    <t xml:space="preserve">CPU MHz:             </t>
   </si>
   <si>
     <t xml:space="preserve">BOHB_KMNIST_3_1_9</t>
@@ -208,10 +220,7 @@
     <t xml:space="preserve">Did the test loss actually decrease for K49</t>
   </si>
   <si>
-    <t xml:space="preserve">Model name:          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel(R) Core(TM) i5-8250U CPU @ 1.60GHz</t>
+    <t xml:space="preserve">CPU max MHz:         </t>
   </si>
   <si>
     <t xml:space="preserve">BOHB_KMNIST_4_1_16</t>
@@ -220,66 +229,60 @@
     <t xml:space="preserve">Did it really learn?</t>
   </si>
   <si>
-    <t xml:space="preserve">Stepping:            </t>
+    <t xml:space="preserve">CPU min MHz:         </t>
   </si>
   <si>
     <t xml:space="preserve">BOHB_KMNIST_3_2_20</t>
   </si>
   <si>
-    <t xml:space="preserve">CPU MHz:             </t>
+    <t xml:space="preserve">BogoMIPS:            </t>
   </si>
   <si>
     <t xml:space="preserve">BOHB_KMNIST_2_1_10</t>
   </si>
   <si>
+    <t xml:space="preserve">Virtualization:      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VT-x</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOHB_K49_3_1_9</t>
   </si>
   <si>
-    <t xml:space="preserve">CPU max MHz:         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU min MHz:         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BogoMIPS:            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtualization:      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VT-x</t>
+    <t xml:space="preserve">L1d cache:           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">32K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1i cache:           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2 cache:            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">256K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3 cache:            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6144K</t>
   </si>
   <si>
     <t xml:space="preserve">BOHB - TRANSFER CONFIG</t>
   </si>
   <si>
-    <t xml:space="preserve">L1d cache:           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">32K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1i cache:           </t>
+    <t xml:space="preserve">NUMA node0 CPU(s):   </t>
   </si>
   <si>
     <t xml:space="preserve">BOHB_KMNIST_3_2_20 (5 hyperparameters)</t>
   </si>
   <si>
-    <t xml:space="preserve">L2 cache:            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">256K</t>
-  </si>
-  <si>
     <t xml:space="preserve">K50</t>
   </si>
   <si>
-    <t xml:space="preserve">L3 cache:            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6144K</t>
-  </si>
-  <si>
     <t xml:space="preserve">BOHB_KMNIST_3_2_20 (Subsetted data)</t>
   </si>
   <si>
@@ -290,9 +293,6 @@
   </si>
   <si>
     <t xml:space="preserve">K53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUMA node0 CPU(s):   </t>
   </si>
   <si>
     <t xml:space="preserve">BOHB_KMNIST_4_1_17</t>
@@ -484,6 +484,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -493,10 +497,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,10 +585,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H50" activeCellId="0" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -946,13 +946,19 @@
       <c r="N8" s="8" t="n">
         <v>20</v>
       </c>
+      <c r="R8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>3</v>
@@ -991,15 +997,15 @@
         <v>20</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="0" t="n">
@@ -1038,10 +1044,16 @@
       <c r="N10" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="R10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="0" t="n">
@@ -1060,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I11" s="7" t="n">
         <v>0.9547</v>
@@ -1081,15 +1093,15 @@
         <v>20</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="0" t="n">
@@ -1128,26 +1140,32 @@
       <c r="N12" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="R12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R13" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R14" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>1</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1159,10 +1177,10 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="R15" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,10 +1188,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -1182,10 +1200,10 @@
         <v>12</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>13</v>
@@ -1193,19 +1211,19 @@
       <c r="J16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>42</v>
+      <c r="K16" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
@@ -1220,7 +1238,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H17" s="9" t="n">
         <v>0.9715</v>
@@ -1236,105 +1254,105 @@
         <v>4117.51678657532</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>142</v>
+        <v>2873.017</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="13" t="n">
         <v>0.9823</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="13" t="n">
         <v>0.9326</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="12" t="n">
         <v>10</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="12" t="n">
+        <v>28</v>
+      </c>
+      <c r="H18" s="13" t="n">
         <v>0.9326</v>
       </c>
-      <c r="I18" s="12" t="n">
+      <c r="I18" s="13" t="n">
         <v>0.8605</v>
       </c>
-      <c r="J18" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="K18" s="11" t="n">
+      <c r="J18" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="K18" s="12" t="n">
         <f aca="false">474.691176652908+3283.0042052269</f>
         <v>3757.69538187981</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>49</v>
+      <c r="M18" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="S18" s="13" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>3400</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="13" t="n">
         <v>0.9995</v>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="13" t="n">
         <v>0.9598</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="12" t="n">
         <v>11</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="12" t="n">
+        <v>28</v>
+      </c>
+      <c r="H19" s="13" t="n">
         <v>0.9963</v>
       </c>
-      <c r="I19" s="12" t="n">
+      <c r="I19" s="13" t="n">
         <v>0.9307</v>
       </c>
-      <c r="J19" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="K19" s="11" t="n">
+      <c r="J19" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="K19" s="12" t="n">
         <f aca="false">1109.43264222145+6734.84380841255</f>
         <v>7844.276450634</v>
       </c>
-      <c r="M19" s="11" t="s">
-        <v>53</v>
+      <c r="M19" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
@@ -1349,7 +1367,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H20" s="9" t="n">
         <v>0.9591</v>
@@ -1365,15 +1383,15 @@
         <v>1486.71574497223</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="S20" s="0" t="n">
-        <v>2873.017</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="9" t="n">
@@ -1399,73 +1417,79 @@
         <f aca="false">271.268751859665+4256.23251771927</f>
         <v>4527.50126957893</v>
       </c>
+      <c r="R21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="12" t="n">
+        <v>28</v>
+      </c>
+      <c r="D22" s="13" t="n">
         <v>0.9855</v>
       </c>
-      <c r="E22" s="12" t="n">
+      <c r="E22" s="13" t="n">
         <v>0.8778</v>
       </c>
-      <c r="F22" s="11" t="n">
+      <c r="F22" s="12" t="n">
         <v>8</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="12" t="n">
+      <c r="H22" s="13" t="n">
         <v>0.97</v>
       </c>
-      <c r="I22" s="12" t="n">
+      <c r="I22" s="13" t="n">
         <v>0.943</v>
       </c>
-      <c r="J22" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="K22" s="11" t="n">
+      <c r="J22" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" s="12" t="n">
         <f aca="false">860.058214664459+750.98587179184</f>
         <v>1611.0440864563</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="S22" s="0" t="n">
-        <v>3400</v>
+        <v>64</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R23" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="S23" s="0" t="n">
-        <v>400</v>
+        <v>66</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R24" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="S24" s="0" t="n">
-        <v>3600</v>
+        <v>67</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R25" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1481,10 +1505,10 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="R26" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,19 +1554,13 @@
       <c r="N27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R27" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="S27" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>3</v>
@@ -1580,19 +1598,13 @@
       <c r="N28" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="R28" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S28" s="0" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>4</v>
@@ -1630,19 +1642,13 @@
       <c r="N29" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="R29" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="S29" s="0" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2</v>
@@ -1660,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I30" s="7" t="n">
         <v>0.9985</v>
@@ -1683,10 +1689,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>3</v>
@@ -1727,10 +1733,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>3</v>
@@ -1767,12 +1773,6 @@
       </c>
       <c r="N32" s="0" t="n">
         <v>20</v>
-      </c>
-      <c r="R32" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="S32" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,10 +1813,10 @@
         <v>0.9993</v>
       </c>
       <c r="M33" s="7" t="n">
-        <v>0.9419</v>
+        <v>0.9428</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1841,6 +1841,27 @@
       <c r="G34" s="15" t="n">
         <v>1</v>
       </c>
+      <c r="H34" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <v>0.9892</v>
+      </c>
+      <c r="J34" s="7" t="n">
+        <v>0.9593</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L34" s="7" t="n">
+        <v>0.9987</v>
+      </c>
+      <c r="M34" s="7" t="n">
+        <v>0.9337</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
@@ -1873,7 +1894,7 @@
         <v>86</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>3</v>
@@ -1938,12 +1959,6 @@
       </c>
       <c r="E44" s="0" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H50" s="0" t="n">
-        <f aca="false">SUM(H4:H9)/3600</f>
-        <v>20.7848525289032</v>
       </c>
     </row>
   </sheetData>

--- a/src/experiments/experiment_results.xlsx
+++ b/src/experiments/experiment_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
   <si>
     <t xml:space="preserve">BOHB</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">KMNIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.3%/94.69%</t>
   </si>
   <si>
     <t xml:space="preserve">CPU op-mode(s):      </t>
@@ -208,27 +205,18 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Show learning curve</t>
-  </si>
-  <si>
     <t xml:space="preserve">CPU MHz:             </t>
   </si>
   <si>
     <t xml:space="preserve">BOHB_KMNIST_3_1_9</t>
   </si>
   <si>
-    <t xml:space="preserve">Did the test loss actually decrease for K49</t>
-  </si>
-  <si>
     <t xml:space="preserve">CPU max MHz:         </t>
   </si>
   <si>
     <t xml:space="preserve">BOHB_KMNIST_4_1_16</t>
   </si>
   <si>
-    <t xml:space="preserve">Did it really learn?</t>
-  </si>
-  <si>
     <t xml:space="preserve">CPU min MHz:         </t>
   </si>
   <si>
@@ -256,9 +244,18 @@
     <t xml:space="preserve">32K</t>
   </si>
   <si>
+    <t xml:space="preserve">BOHB_K49_2_1_10</t>
+  </si>
+  <si>
     <t xml:space="preserve">L1i cache:           </t>
   </si>
   <si>
+    <t xml:space="preserve">KMNIST_4_1_16_K49_4_1_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;2 hrs</t>
+  </si>
+  <si>
     <t xml:space="preserve">L2 cache:            </t>
   </si>
   <si>
@@ -301,7 +298,7 @@
     <t xml:space="preserve">K54</t>
   </si>
   <si>
-    <t xml:space="preserve">BOHB_KMNIST_4_1_16 (Subsetted data + data aug) 12:36</t>
+    <t xml:space="preserve">BOHB_KMNIST_4_1_16 (Subsetted data + data aug)</t>
   </si>
   <si>
     <t xml:space="preserve">K55</t>
@@ -395,18 +392,36 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF00A65D"/>
+      <color rgb="FF111111"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDAA2"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2E0AE"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF72BF44"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -443,7 +458,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -468,44 +483,84 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -533,7 +588,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFC2E0AE"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -558,18 +613,18 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDAA2"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF72BF44"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00A65D"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF111111"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
@@ -585,10 +640,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H50" activeCellId="0" sqref="H50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -707,50 +762,50 @@
       <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="0" t="n">
+      <c r="G4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="n">
         <v>7500</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="8" t="n">
         <v>0.9976</v>
       </c>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="8" t="n">
         <v>0.9808</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="L4" s="7" t="n">
+      <c r="L4" s="8" t="n">
         <v>0.9986</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="8" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="N4" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R4" s="0" t="s">
+      <c r="S4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="T4" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,47 +815,47 @@
       <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="D5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0" t="n">
+      <c r="F5" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="n">
         <v>7508.52000308037</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="8" t="n">
         <v>0.9828</v>
       </c>
-      <c r="J5" s="7" t="n">
+      <c r="J5" s="8" t="n">
         <v>0.9717</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="L5" s="7" t="n">
+      <c r="L5" s="8" t="n">
         <v>0.9859</v>
       </c>
-      <c r="M5" s="7" t="n">
+      <c r="M5" s="8" t="n">
         <v>0.8736</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="7" t="n">
         <v>20</v>
       </c>
       <c r="R5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,44 +865,44 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="D6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="n">
+      <c r="F6" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="n">
         <v>12000</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="8" t="n">
         <v>0.9997</v>
       </c>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="8" t="n">
         <v>0.9826</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="L6" s="7" t="n">
+      <c r="L6" s="8" t="n">
         <v>0.9998</v>
       </c>
-      <c r="M6" s="7" t="n">
+      <c r="M6" s="8" t="n">
         <v>0.9532</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="7" t="n">
         <v>20</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>8</v>
@@ -860,47 +915,47 @@
       <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="G7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8" t="n">
+      <c r="E7" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="n">
         <v>19766.4963846207</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="10" t="n">
         <v>0.9965</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="10" t="n">
         <v>0.9831</v>
       </c>
-      <c r="K7" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="L7" s="9" t="n">
+      <c r="K7" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L7" s="10" t="n">
         <v>0.9957</v>
       </c>
-      <c r="M7" s="9" t="n">
+      <c r="M7" s="10" t="n">
         <v>0.9157</v>
       </c>
-      <c r="N7" s="8" t="n">
+      <c r="N7" s="9" t="n">
         <v>20</v>
       </c>
       <c r="R7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -910,246 +965,246 @@
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8" t="n">
+      <c r="D8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="G8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8" t="n">
+      <c r="G8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="n">
         <v>12000</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" s="10" t="n">
         <v>0.9999</v>
       </c>
-      <c r="J8" s="9" t="n">
+      <c r="J8" s="10" t="n">
         <v>0.9777</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L8" s="9" t="n">
+      <c r="L8" s="10" t="n">
         <v>0.9998</v>
       </c>
-      <c r="M8" s="9" t="n">
+      <c r="M8" s="10" t="n">
         <v>0.9409</v>
       </c>
-      <c r="N8" s="8" t="n">
+      <c r="N8" s="9" t="n">
         <v>20</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S8" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <v>16050.4527163506</v>
+      </c>
+      <c r="I9" s="13" t="n">
+        <v>0.9345</v>
+      </c>
+      <c r="J9" s="13" t="n">
+        <v>0.8906</v>
+      </c>
+      <c r="K9" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="L9" s="13" t="n">
+        <v>0.9993</v>
+      </c>
+      <c r="M9" s="13" t="n">
+        <v>0.8812</v>
+      </c>
+      <c r="N9" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="R9" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>16050.4527163506</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>0.9345</v>
-      </c>
-      <c r="J9" s="7" t="n">
-        <v>0.8906</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="L9" s="7" t="n">
-        <v>0.9993</v>
-      </c>
-      <c r="M9" s="7" t="n">
-        <v>0.8812</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12" t="n">
+        <v>18701.0908265114</v>
+      </c>
+      <c r="I10" s="13" t="n">
+        <v>0.9619</v>
+      </c>
+      <c r="J10" s="13" t="n">
+        <v>0.9177</v>
+      </c>
+      <c r="K10" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="L10" s="13" t="n">
+        <v>0.9986</v>
+      </c>
+      <c r="M10" s="13" t="n">
+        <v>0.8794</v>
+      </c>
+      <c r="N10" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="R10" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="S10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F11" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>18701.0908265114</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>0.9619</v>
-      </c>
-      <c r="J10" s="7" t="n">
-        <v>0.9177</v>
-      </c>
-      <c r="K10" s="0" t="n">
+      <c r="G11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="13" t="n">
+        <v>0.9547</v>
+      </c>
+      <c r="J11" s="13" t="n">
+        <v>0.9335</v>
+      </c>
+      <c r="K11" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="L10" s="7" t="n">
-        <v>0.9986</v>
-      </c>
-      <c r="M10" s="7" t="n">
-        <v>0.8794</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="0" t="n">
+      <c r="L11" s="13" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="M11" s="13" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="N11" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F11" s="0" t="n">
+      <c r="D12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="7" t="n">
-        <v>0.9547</v>
-      </c>
-      <c r="J11" s="7" t="n">
-        <v>0.9335</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="L11" s="7" t="n">
-        <v>0.964</v>
-      </c>
-      <c r="M11" s="7" t="n">
-        <v>0.8333</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="F12" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12" t="n">
+        <v>42638.6356203556</v>
+      </c>
+      <c r="I12" s="13" t="n">
+        <v>0.9694</v>
+      </c>
+      <c r="J12" s="13" t="n">
+        <v>0.9119</v>
+      </c>
+      <c r="K12" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" s="13" t="n">
+        <v>0.9925</v>
+      </c>
+      <c r="M12" s="13" t="n">
+        <v>0.8825</v>
+      </c>
+      <c r="N12" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="R12" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>42638.6356203556</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>0.9694</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <v>0.9119</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L12" s="7" t="n">
-        <v>0.9925</v>
-      </c>
-      <c r="M12" s="7" t="n">
-        <v>0.8825</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R12" s="0" t="s">
+      <c r="S12" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="S12" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R13" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>6</v>
@@ -1157,7 +1212,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R14" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S14" s="0" t="n">
         <v>142</v>
@@ -1165,7 +1220,7 @@
     </row>
     <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1177,10 +1232,10 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="R15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,10 +1243,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -1200,10 +1255,10 @@
         <v>12</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>13</v>
@@ -1211,11 +1266,11 @@
       <c r="J16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="R16" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="S16" s="0" t="n">
         <v>10</v>
@@ -1223,44 +1278,42 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="17" t="n">
         <v>0.9981</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="17" t="n">
         <v>0.9506</v>
       </c>
-      <c r="F17" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="9" t="n">
+      <c r="F17" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="17" t="n">
         <v>0.9715</v>
       </c>
-      <c r="I17" s="9" t="n">
+      <c r="I17" s="17" t="n">
         <v>0.9049</v>
       </c>
-      <c r="J17" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="K17" s="8" t="n">
+      <c r="J17" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" s="18" t="n">
         <f aca="false">836.915745019913+3280.6010415554</f>
         <v>4117.51678657532</v>
       </c>
       <c r="L17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="R17" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R17" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="S17" s="0" t="n">
         <v>2873.017</v>
@@ -1268,41 +1321,39 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="13" t="n">
-        <v>0.9823</v>
-      </c>
-      <c r="E18" s="13" t="n">
-        <v>0.9326</v>
-      </c>
-      <c r="F18" s="12" t="n">
+      <c r="D18" s="17" t="n">
+        <v>0.9837</v>
+      </c>
+      <c r="E18" s="17" t="n">
+        <v>0.9204</v>
+      </c>
+      <c r="F18" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="13" t="n">
-        <v>0.9326</v>
-      </c>
-      <c r="I18" s="13" t="n">
-        <v>0.8605</v>
-      </c>
-      <c r="J18" s="12" t="n">
-        <v>20</v>
-      </c>
-      <c r="K18" s="12" t="n">
-        <f aca="false">474.691176652908+3283.0042052269</f>
-        <v>3757.69538187981</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="G18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="17" t="n">
+        <v>0.9367</v>
+      </c>
+      <c r="I18" s="17" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="J18" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="K18" s="18" t="n">
+        <f aca="false">628.705276250839+4616.75477552414</f>
+        <v>5245.46005177498</v>
+      </c>
+      <c r="M18" s="19"/>
       <c r="R18" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S18" s="0" t="n">
         <v>3400</v>
@@ -1310,41 +1361,39 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="13" t="n">
-        <v>0.9995</v>
-      </c>
-      <c r="E19" s="13" t="n">
-        <v>0.9598</v>
-      </c>
-      <c r="F19" s="12" t="n">
-        <v>11</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="13" t="n">
-        <v>0.9963</v>
-      </c>
-      <c r="I19" s="13" t="n">
-        <v>0.9307</v>
-      </c>
-      <c r="J19" s="12" t="n">
-        <v>20</v>
-      </c>
-      <c r="K19" s="12" t="n">
-        <f aca="false">1109.43264222145+6734.84380841255</f>
-        <v>7844.276450634</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="D19" s="17" t="n">
+        <v>0.9998</v>
+      </c>
+      <c r="E19" s="17" t="n">
+        <v>0.9641</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="17" t="n">
+        <v>0.9967</v>
+      </c>
+      <c r="I19" s="17" t="n">
+        <v>0.9332</v>
+      </c>
+      <c r="J19" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="K19" s="18" t="n">
+        <f aca="false">2345.05150938034+10953.8007125854</f>
+        <v>13298.8522219658</v>
+      </c>
+      <c r="M19" s="19"/>
       <c r="R19" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>400</v>
@@ -1352,38 +1401,38 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="17" t="n">
         <v>0.9962</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="17" t="n">
         <v>0.9541</v>
       </c>
-      <c r="F20" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="9" t="n">
+      <c r="F20" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="17" t="n">
         <v>0.9591</v>
       </c>
-      <c r="I20" s="9" t="n">
+      <c r="I20" s="17" t="n">
         <v>0.9063</v>
       </c>
-      <c r="J20" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="K20" s="0" t="n">
+      <c r="J20" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="K20" s="18" t="n">
         <f aca="false">331.759591579437+1154.95615339279</f>
         <v>1486.71574497223</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="S20" s="0" t="n">
         <v>3600</v>
@@ -1391,267 +1440,278 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="9" t="n">
+        <v>56</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17" t="n">
         <v>0.9986</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="17" t="n">
         <v>0.9408</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="9" t="n">
+      <c r="G21" s="16"/>
+      <c r="H21" s="17" t="n">
         <v>0.9983</v>
       </c>
-      <c r="I21" s="9" t="n">
+      <c r="I21" s="17" t="n">
         <v>0.9032</v>
       </c>
-      <c r="J21" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="K21" s="8" t="n">
+      <c r="J21" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="K21" s="18" t="n">
         <f aca="false">271.268751859665+4256.23251771927</f>
         <v>4527.50126957893</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="17" t="n">
+        <v>0.9889</v>
+      </c>
+      <c r="E22" s="17" t="n">
+        <v>0.8838</v>
+      </c>
+      <c r="F22" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="17" t="n">
+        <v>0.9998</v>
+      </c>
+      <c r="I22" s="17" t="n">
+        <v>0.9603</v>
+      </c>
+      <c r="J22" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" s="18" t="n">
+        <f aca="false">1096.19504475594+513.354417562485</f>
+        <v>1609.54946231842</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="21" t="n">
+        <v>0.9798</v>
+      </c>
+      <c r="E23" s="21" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21" t="n">
+        <v>0.9998</v>
+      </c>
+      <c r="I23" s="21" t="n">
+        <v>0.9487</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">378.126953125+131.338213443756</f>
+        <v>509.465166568756</v>
+      </c>
+      <c r="R23" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="13" t="n">
-        <v>0.9855</v>
-      </c>
-      <c r="E22" s="13" t="n">
-        <v>0.8778</v>
-      </c>
-      <c r="F22" s="12" t="n">
+      <c r="S23" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="23" t="n">
+        <v>0.9937</v>
+      </c>
+      <c r="E24" s="23" t="n">
+        <v>0.9384</v>
+      </c>
+      <c r="F24" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="23" t="n">
+        <v>0.9998</v>
+      </c>
+      <c r="I24" s="23" t="n">
+        <v>0.9789</v>
+      </c>
+      <c r="J24" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R26" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="R27" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="13" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I22" s="13" t="n">
-        <v>0.943</v>
-      </c>
-      <c r="J22" s="12" t="n">
-        <v>20</v>
-      </c>
-      <c r="K22" s="12" t="n">
-        <f aca="false">860.058214664459+750.98587179184</f>
-        <v>1611.0440864563</v>
-      </c>
-      <c r="R22" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="S22" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R23" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="S23" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R24" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="S24" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R25" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S25" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="R26" s="0" t="s">
+      <c r="H28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="S26" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="B29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>13888.2287483215</v>
+      </c>
+      <c r="I29" s="21" t="n">
+        <v>0.9817</v>
+      </c>
+      <c r="J29" s="21" t="n">
+        <v>0.9609</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L29" s="21" t="n">
+        <v>0.9887</v>
+      </c>
+      <c r="M29" s="21" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>13888.2287483215</v>
-      </c>
-      <c r="I28" s="7" t="n">
-        <v>0.9817</v>
-      </c>
-      <c r="J28" s="7" t="n">
-        <v>0.9609</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="L28" s="7" t="n">
-        <v>0.9887</v>
-      </c>
-      <c r="M28" s="7" t="n">
-        <v>0.902</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>18743.8345746994</v>
-      </c>
-      <c r="I29" s="7" t="n">
-        <v>0.9884</v>
-      </c>
-      <c r="J29" s="7" t="n">
-        <v>0.9644</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="L29" s="7" t="n">
-        <v>0.9893</v>
-      </c>
-      <c r="M29" s="7" t="n">
-        <v>0.8998</v>
-      </c>
-      <c r="N29" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
@@ -1660,83 +1720,83 @@
         <v>16</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H30" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="7" t="n">
-        <v>0.9985</v>
-      </c>
-      <c r="J30" s="7" t="n">
-        <v>0.9607</v>
+      <c r="H30" s="0" t="n">
+        <v>18743.8345746994</v>
+      </c>
+      <c r="I30" s="21" t="n">
+        <v>0.9884</v>
+      </c>
+      <c r="J30" s="21" t="n">
+        <v>0.9644</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="L30" s="7" t="n">
+      <c r="L30" s="21" t="n">
+        <v>0.9893</v>
+      </c>
+      <c r="M30" s="21" t="n">
+        <v>0.8998</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="21" t="n">
+        <v>0.9985</v>
+      </c>
+      <c r="J31" s="21" t="n">
+        <v>0.9607</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="L31" s="21" t="n">
         <v>0.9986</v>
       </c>
-      <c r="M30" s="7" t="n">
+      <c r="M31" s="21" t="n">
         <v>0.9385</v>
       </c>
-      <c r="N30" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>9265.1885433197</v>
-      </c>
-      <c r="I31" s="7" t="n">
-        <v>0.9721</v>
-      </c>
-      <c r="J31" s="7" t="n">
-        <v>0.9555</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="L31" s="7" t="n">
-        <v>0.9816</v>
-      </c>
-      <c r="M31" s="7" t="n">
-        <v>0.8825</v>
-      </c>
       <c r="N31" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>78</v>
+      <c r="A32" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>3</v>
@@ -1748,232 +1808,278 @@
         <v>9</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>27534.1222834587</v>
-      </c>
-      <c r="I32" s="7" t="n">
-        <v>0.9943</v>
-      </c>
-      <c r="J32" s="7" t="n">
-        <v>0.9564</v>
+        <v>9265.1885433197</v>
+      </c>
+      <c r="I32" s="21" t="n">
+        <v>0.9721</v>
+      </c>
+      <c r="J32" s="21" t="n">
+        <v>0.9555</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L32" s="7" t="n">
+      <c r="L32" s="21" t="n">
+        <v>0.9816</v>
+      </c>
+      <c r="M32" s="21" t="n">
+        <v>0.8825</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>27534.1222834587</v>
+      </c>
+      <c r="I33" s="21" t="n">
+        <v>0.9943</v>
+      </c>
+      <c r="J33" s="21" t="n">
+        <v>0.9564</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L33" s="21" t="n">
         <v>0.999</v>
       </c>
-      <c r="M32" s="7" t="n">
+      <c r="M33" s="21" t="n">
         <v>0.9336</v>
       </c>
-      <c r="N32" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+      <c r="N33" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C34" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D34" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="F34" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="22" t="n">
+        <v>70000</v>
+      </c>
+      <c r="I34" s="23" t="n">
+        <v>0.9989</v>
+      </c>
+      <c r="J34" s="23" t="n">
+        <v>0.9659</v>
+      </c>
+      <c r="K34" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="L34" s="23" t="n">
+        <v>0.9993</v>
+      </c>
+      <c r="M34" s="23" t="n">
+        <v>0.9428</v>
+      </c>
+      <c r="N34" s="22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>70000</v>
-      </c>
-      <c r="I33" s="7" t="n">
-        <v>0.9989</v>
-      </c>
-      <c r="J33" s="7" t="n">
-        <v>0.9659</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="L33" s="7" t="n">
-        <v>0.9993</v>
-      </c>
-      <c r="M33" s="7" t="n">
-        <v>0.9428</v>
-      </c>
-      <c r="N33" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="B35" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C35" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="F35" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="I35" s="21" t="n">
+        <v>0.9892</v>
+      </c>
+      <c r="J35" s="21" t="n">
+        <v>0.9593</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L35" s="21" t="n">
+        <v>0.9987</v>
+      </c>
+      <c r="M35" s="21" t="n">
+        <v>0.9337</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="15" t="n">
+      <c r="B36" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D34" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="15" t="n">
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F34" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="G34" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>50000</v>
-      </c>
-      <c r="I34" s="7" t="n">
-        <v>0.9892</v>
-      </c>
-      <c r="J34" s="7" t="n">
-        <v>0.9593</v>
-      </c>
-      <c r="K34" s="0" t="n">
+      <c r="F37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>5783.84894371033</v>
+      </c>
+      <c r="I37" s="21" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="J37" s="21" t="n">
+        <v>0.9405</v>
+      </c>
+      <c r="K37" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L34" s="7" t="n">
-        <v>0.9987</v>
-      </c>
-      <c r="M34" s="7" t="n">
-        <v>0.9337</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>5783.84894371033</v>
-      </c>
-      <c r="I36" s="7" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="J36" s="7" t="n">
-        <v>0.9405</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="L36" s="7" t="n">
+      <c r="L37" s="21" t="n">
         <v>0.9905</v>
       </c>
-      <c r="M36" s="7" t="n">
+      <c r="M37" s="21" t="n">
         <v>0.8803</v>
       </c>
-      <c r="N36" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="7" t="n">
-        <v>0.6602</v>
-      </c>
-      <c r="D43" s="7" t="n">
-        <v>0.5442</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>88</v>
+      <c r="N37" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="7" t="n">
+        <v>86</v>
+      </c>
+      <c r="C44" s="21" t="n">
+        <v>0.6602</v>
+      </c>
+      <c r="D44" s="21" t="n">
+        <v>0.5442</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="21" t="n">
         <v>0.8266</v>
       </c>
-      <c r="D44" s="7" t="n">
+      <c r="D45" s="21" t="n">
         <v>0.6956</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>88</v>
+      <c r="E45" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B15:K15"/>
     <mergeCell ref="C17:C21"/>
     <mergeCell ref="G17:G21"/>
-    <mergeCell ref="A26:N26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/experiments/experiment_results.xlsx
+++ b/src/experiments/experiment_results.xlsx
@@ -458,7 +458,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -536,6 +536,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -642,8 +646,8 @@
   </sheetPr>
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1369,7 +1373,7 @@
       <c r="D19" s="17" t="n">
         <v>0.9998</v>
       </c>
-      <c r="E19" s="17" t="n">
+      <c r="E19" s="20" t="n">
         <v>0.9641</v>
       </c>
       <c r="F19" s="18" t="n">
@@ -1489,7 +1493,7 @@
       <c r="F22" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="17" t="n">
@@ -1517,20 +1521,20 @@
         <v>62</v>
       </c>
       <c r="C23" s="16"/>
-      <c r="D23" s="21" t="n">
+      <c r="D23" s="22" t="n">
         <v>0.9798</v>
       </c>
-      <c r="E23" s="21" t="n">
+      <c r="E23" s="22" t="n">
         <v>0.87</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21" t="n">
+      <c r="G23" s="21"/>
+      <c r="H23" s="22" t="n">
         <v>0.9998</v>
       </c>
-      <c r="I23" s="21" t="n">
+      <c r="I23" s="22" t="n">
         <v>0.9487</v>
       </c>
       <c r="J23" s="0" t="n">
@@ -1548,32 +1552,32 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="23" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="23" t="n">
+      <c r="D24" s="24" t="n">
         <v>0.9937</v>
       </c>
-      <c r="E24" s="23" t="n">
+      <c r="E24" s="24" t="n">
         <v>0.9384</v>
       </c>
-      <c r="F24" s="22" t="n">
+      <c r="F24" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="23" t="n">
+      <c r="G24" s="21"/>
+      <c r="H24" s="24" t="n">
         <v>0.9998</v>
       </c>
-      <c r="I24" s="23" t="n">
+      <c r="I24" s="24" t="n">
         <v>0.9789</v>
       </c>
-      <c r="J24" s="22" t="n">
-        <v>20</v>
-      </c>
-      <c r="K24" s="22" t="s">
+      <c r="J24" s="23" t="n">
+        <v>20</v>
+      </c>
+      <c r="K24" s="23" t="s">
         <v>65</v>
       </c>
       <c r="R24" s="0" t="s">
@@ -1684,19 +1688,19 @@
       <c r="H29" s="0" t="n">
         <v>13888.2287483215</v>
       </c>
-      <c r="I29" s="21" t="n">
+      <c r="I29" s="22" t="n">
         <v>0.9817</v>
       </c>
-      <c r="J29" s="21" t="n">
+      <c r="J29" s="22" t="n">
         <v>0.9609</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L29" s="21" t="n">
+      <c r="L29" s="22" t="n">
         <v>0.9887</v>
       </c>
-      <c r="M29" s="21" t="n">
+      <c r="M29" s="22" t="n">
         <v>0.902</v>
       </c>
       <c r="N29" s="0" t="n">
@@ -1728,19 +1732,19 @@
       <c r="H30" s="0" t="n">
         <v>18743.8345746994</v>
       </c>
-      <c r="I30" s="21" t="n">
+      <c r="I30" s="22" t="n">
         <v>0.9884</v>
       </c>
-      <c r="J30" s="21" t="n">
+      <c r="J30" s="22" t="n">
         <v>0.9644</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="L30" s="21" t="n">
+      <c r="L30" s="22" t="n">
         <v>0.9893</v>
       </c>
-      <c r="M30" s="21" t="n">
+      <c r="M30" s="22" t="n">
         <v>0.8998</v>
       </c>
       <c r="N30" s="0" t="n">
@@ -1772,19 +1776,19 @@
       <c r="H31" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="I31" s="21" t="n">
+      <c r="I31" s="22" t="n">
         <v>0.9985</v>
       </c>
-      <c r="J31" s="21" t="n">
+      <c r="J31" s="22" t="n">
         <v>0.9607</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="L31" s="21" t="n">
+      <c r="L31" s="22" t="n">
         <v>0.9986</v>
       </c>
-      <c r="M31" s="21" t="n">
+      <c r="M31" s="22" t="n">
         <v>0.9385</v>
       </c>
       <c r="N31" s="0" t="n">
@@ -1816,19 +1820,19 @@
       <c r="H32" s="0" t="n">
         <v>9265.1885433197</v>
       </c>
-      <c r="I32" s="21" t="n">
+      <c r="I32" s="22" t="n">
         <v>0.9721</v>
       </c>
-      <c r="J32" s="21" t="n">
+      <c r="J32" s="22" t="n">
         <v>0.9555</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L32" s="21" t="n">
+      <c r="L32" s="22" t="n">
         <v>0.9816</v>
       </c>
-      <c r="M32" s="21" t="n">
+      <c r="M32" s="22" t="n">
         <v>0.8825</v>
       </c>
       <c r="N32" s="0" t="n">
@@ -1860,19 +1864,19 @@
       <c r="H33" s="0" t="n">
         <v>27534.1222834587</v>
       </c>
-      <c r="I33" s="21" t="n">
+      <c r="I33" s="22" t="n">
         <v>0.9943</v>
       </c>
-      <c r="J33" s="21" t="n">
+      <c r="J33" s="22" t="n">
         <v>0.9564</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L33" s="21" t="n">
+      <c r="L33" s="22" t="n">
         <v>0.999</v>
       </c>
-      <c r="M33" s="21" t="n">
+      <c r="M33" s="22" t="n">
         <v>0.9336</v>
       </c>
       <c r="N33" s="0" t="n">
@@ -1886,40 +1890,40 @@
       <c r="B34" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="22" t="n">
+      <c r="C34" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="D34" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="22" t="n">
+      <c r="D34" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="23" t="n">
         <v>16</v>
       </c>
-      <c r="F34" s="22" t="n">
+      <c r="F34" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="G34" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="22" t="n">
+      <c r="G34" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="23" t="n">
         <v>70000</v>
       </c>
-      <c r="I34" s="23" t="n">
+      <c r="I34" s="24" t="n">
         <v>0.9989</v>
       </c>
-      <c r="J34" s="23" t="n">
+      <c r="J34" s="24" t="n">
         <v>0.9659</v>
       </c>
-      <c r="K34" s="22" t="n">
+      <c r="K34" s="23" t="n">
         <v>16</v>
       </c>
-      <c r="L34" s="23" t="n">
+      <c r="L34" s="24" t="n">
         <v>0.9993</v>
       </c>
-      <c r="M34" s="23" t="n">
+      <c r="M34" s="24" t="n">
         <v>0.9428</v>
       </c>
-      <c r="N34" s="22" t="n">
+      <c r="N34" s="23" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1930,37 +1934,37 @@
       <c r="B35" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="24" t="n">
+      <c r="C35" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="D35" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="24" t="n">
+      <c r="D35" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="F35" s="24" t="n">
+      <c r="F35" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="G35" s="24" t="n">
+      <c r="G35" s="25" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="I35" s="21" t="n">
+      <c r="I35" s="22" t="n">
         <v>0.9892</v>
       </c>
-      <c r="J35" s="21" t="n">
+      <c r="J35" s="22" t="n">
         <v>0.9593</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L35" s="21" t="n">
+      <c r="L35" s="22" t="n">
         <v>0.9987</v>
       </c>
-      <c r="M35" s="21" t="n">
+      <c r="M35" s="22" t="n">
         <v>0.9337</v>
       </c>
       <c r="N35" s="0" t="n">
@@ -1994,10 +1998,10 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -2018,19 +2022,19 @@
       <c r="H37" s="0" t="n">
         <v>5783.84894371033</v>
       </c>
-      <c r="I37" s="21" t="n">
+      <c r="I37" s="22" t="n">
         <v>0.958</v>
       </c>
-      <c r="J37" s="21" t="n">
+      <c r="J37" s="22" t="n">
         <v>0.9405</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L37" s="21" t="n">
+      <c r="L37" s="22" t="n">
         <v>0.9905</v>
       </c>
-      <c r="M37" s="21" t="n">
+      <c r="M37" s="22" t="n">
         <v>0.8803</v>
       </c>
       <c r="N37" s="0" t="n">
@@ -2041,10 +2045,10 @@
       <c r="B44" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="21" t="n">
+      <c r="C44" s="22" t="n">
         <v>0.6602</v>
       </c>
-      <c r="D44" s="21" t="n">
+      <c r="D44" s="22" t="n">
         <v>0.5442</v>
       </c>
       <c r="E44" s="0" t="s">
@@ -2055,10 +2059,10 @@
       <c r="B45" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="21" t="n">
+      <c r="C45" s="22" t="n">
         <v>0.8266</v>
       </c>
-      <c r="D45" s="21" t="n">
+      <c r="D45" s="22" t="n">
         <v>0.6956</v>
       </c>
       <c r="E45" s="0" t="s">
